--- a/natmiOut/OldD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Myoc</t>
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>35.3571801099722</v>
+        <v>0.9392963333333334</v>
       </c>
       <c r="H2">
-        <v>35.3571801099722</v>
+        <v>2.817889</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02351740654579802</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02351740654579801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.1650061772661</v>
+        <v>30.38232766666667</v>
       </c>
       <c r="N2">
-        <v>30.1650061772661</v>
+        <v>91.14698300000001</v>
       </c>
       <c r="O2">
-        <v>0.4512767160436088</v>
+        <v>0.4410933377331532</v>
       </c>
       <c r="P2">
-        <v>0.4512767160436088</v>
+        <v>0.4410933377331531</v>
       </c>
       <c r="Q2">
-        <v>1066.549556428022</v>
+        <v>28.53800897543189</v>
       </c>
       <c r="R2">
-        <v>1066.549556428022</v>
+        <v>256.842080778887</v>
       </c>
       <c r="S2">
-        <v>0.4512767160436088</v>
+        <v>0.01037337134811355</v>
       </c>
       <c r="T2">
-        <v>0.4512767160436088</v>
+        <v>0.01037337134811355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>35.3571801099722</v>
+        <v>0.9392963333333334</v>
       </c>
       <c r="H3">
-        <v>35.3571801099722</v>
+        <v>2.817889</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02351740654579802</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02351740654579801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.5810576617914</v>
+        <v>22.690535</v>
       </c>
       <c r="N3">
-        <v>22.5810576617914</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3378187787040645</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="P3">
-        <v>0.3378187787040645</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="Q3">
-        <v>798.4025228216262</v>
+        <v>21.31313632687167</v>
       </c>
       <c r="R3">
-        <v>798.4025228216262</v>
+        <v>191.818226941845</v>
       </c>
       <c r="S3">
-        <v>0.3378187787040645</v>
+        <v>0.007747179486205299</v>
       </c>
       <c r="T3">
-        <v>0.3378187787040645</v>
+        <v>0.007747179486205297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,867 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.9392963333333334</v>
+      </c>
+      <c r="H4">
+        <v>2.817889</v>
+      </c>
+      <c r="I4">
+        <v>0.02351740654579802</v>
+      </c>
+      <c r="J4">
+        <v>0.02351740654579801</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.09645133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.289354</v>
+      </c>
+      <c r="O4">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="P4">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="Q4">
+        <v>0.09059638374511111</v>
+      </c>
+      <c r="R4">
+        <v>0.8153674537060001</v>
+      </c>
+      <c r="S4">
+        <v>3.293116671850837E-05</v>
+      </c>
+      <c r="T4">
+        <v>3.293116671850836E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.9392963333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.817889</v>
+      </c>
+      <c r="I5">
+        <v>0.02351740654579802</v>
+      </c>
+      <c r="J5">
+        <v>0.02351740654579801</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>15.71027466666667</v>
+      </c>
+      <c r="N5">
+        <v>47.130824</v>
+      </c>
+      <c r="O5">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="P5">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="Q5">
+        <v>14.75660339005955</v>
+      </c>
+      <c r="R5">
+        <v>132.809430510536</v>
+      </c>
+      <c r="S5">
+        <v>0.005363924544760658</v>
+      </c>
+      <c r="T5">
+        <v>0.005363924544760658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>37.428193</v>
+      </c>
+      <c r="H6">
+        <v>112.284579</v>
+      </c>
+      <c r="I6">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J6">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>30.38232766666667</v>
+      </c>
+      <c r="N6">
+        <v>91.14698300000001</v>
+      </c>
+      <c r="O6">
+        <v>0.4410933377331532</v>
+      </c>
+      <c r="P6">
+        <v>0.4410933377331531</v>
+      </c>
+      <c r="Q6">
+        <v>1137.15562369724</v>
+      </c>
+      <c r="R6">
+        <v>10234.40061327516</v>
+      </c>
+      <c r="S6">
+        <v>0.413348302446829</v>
+      </c>
+      <c r="T6">
+        <v>0.413348302446829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>37.428193</v>
+      </c>
+      <c r="H7">
+        <v>112.284579</v>
+      </c>
+      <c r="I7">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J7">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.690535</v>
+      </c>
+      <c r="N7">
+        <v>68.07160500000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="P7">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="Q7">
+        <v>849.265723253255</v>
+      </c>
+      <c r="R7">
+        <v>7643.391509279296</v>
+      </c>
+      <c r="S7">
+        <v>0.3087022899219942</v>
+      </c>
+      <c r="T7">
+        <v>0.3087022899219942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>37.428193</v>
+      </c>
+      <c r="H8">
+        <v>112.284579</v>
+      </c>
+      <c r="I8">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J8">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09645133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.289354</v>
+      </c>
+      <c r="O8">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="P8">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="Q8">
+        <v>3.609999119107334</v>
+      </c>
+      <c r="R8">
+        <v>32.489992071966</v>
+      </c>
+      <c r="S8">
+        <v>0.00131221002351992</v>
+      </c>
+      <c r="T8">
+        <v>0.00131221002351992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>35.3571801099722</v>
-      </c>
-      <c r="H4">
-        <v>35.3571801099722</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>14.097637829679</v>
-      </c>
-      <c r="N4">
-        <v>14.097637829679</v>
-      </c>
-      <c r="O4">
-        <v>0.2109045052523268</v>
-      </c>
-      <c r="P4">
-        <v>0.2109045052523268</v>
-      </c>
-      <c r="Q4">
-        <v>498.452719869118</v>
-      </c>
-      <c r="R4">
-        <v>498.452719869118</v>
-      </c>
-      <c r="S4">
-        <v>0.2109045052523268</v>
-      </c>
-      <c r="T4">
-        <v>0.2109045052523268</v>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>37.428193</v>
+      </c>
+      <c r="H9">
+        <v>112.284579</v>
+      </c>
+      <c r="I9">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J9">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.71027466666667</v>
+      </c>
+      <c r="N9">
+        <v>47.130824</v>
+      </c>
+      <c r="O9">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="P9">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="Q9">
+        <v>588.0071923070107</v>
+      </c>
+      <c r="R9">
+        <v>5292.064730763096</v>
+      </c>
+      <c r="S9">
+        <v>0.21373659831747</v>
+      </c>
+      <c r="T9">
+        <v>0.21373659831747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.182945</v>
+      </c>
+      <c r="I10">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J10">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.38232766666667</v>
+      </c>
+      <c r="N10">
+        <v>91.14698300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.4410933377331532</v>
+      </c>
+      <c r="P10">
+        <v>0.4410933377331531</v>
+      </c>
+      <c r="Q10">
+        <v>1.852764978326111</v>
+      </c>
+      <c r="R10">
+        <v>16.674884804935</v>
+      </c>
+      <c r="S10">
+        <v>0.0006734674152461767</v>
+      </c>
+      <c r="T10">
+        <v>0.0006734674152461765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.182945</v>
+      </c>
+      <c r="I11">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J11">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.690535</v>
+      </c>
+      <c r="N11">
+        <v>68.07160500000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="P11">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="Q11">
+        <v>1.383706641858333</v>
+      </c>
+      <c r="R11">
+        <v>12.453359776725</v>
+      </c>
+      <c r="S11">
+        <v>0.0005029679136061883</v>
+      </c>
+      <c r="T11">
+        <v>0.0005029679136061882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.182945</v>
+      </c>
+      <c r="I12">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J12">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09645133333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.289354</v>
+      </c>
+      <c r="O12">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="P12">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="Q12">
+        <v>0.005881763058888888</v>
+      </c>
+      <c r="R12">
+        <v>0.05293586753</v>
+      </c>
+      <c r="S12">
+        <v>2.137980699494378E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.137980699494378E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.182945</v>
+      </c>
+      <c r="I13">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J13">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.71027466666667</v>
+      </c>
+      <c r="N13">
+        <v>47.130824</v>
+      </c>
+      <c r="O13">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="P13">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="Q13">
+        <v>0.9580387329644443</v>
+      </c>
+      <c r="R13">
+        <v>8.622348596679998</v>
+      </c>
+      <c r="S13">
+        <v>0.0003482405360329092</v>
+      </c>
+      <c r="T13">
+        <v>0.0003482405360329092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.536005</v>
+      </c>
+      <c r="I14">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J14">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.38232766666667</v>
+      </c>
+      <c r="N14">
+        <v>91.14698300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4410933377331532</v>
+      </c>
+      <c r="P14">
+        <v>0.4410933377331531</v>
+      </c>
+      <c r="Q14">
+        <v>45.93813006921278</v>
+      </c>
+      <c r="R14">
+        <v>413.443170622915</v>
+      </c>
+      <c r="S14">
+        <v>0.01669819652296447</v>
+      </c>
+      <c r="T14">
+        <v>0.01669819652296446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.536005</v>
+      </c>
+      <c r="I15">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J15">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.690535</v>
+      </c>
+      <c r="N15">
+        <v>68.07160500000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="P15">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="Q15">
+        <v>34.30812673755833</v>
+      </c>
+      <c r="R15">
+        <v>308.773140638025</v>
+      </c>
+      <c r="S15">
+        <v>0.01247076974477159</v>
+      </c>
+      <c r="T15">
+        <v>0.01247076974477159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.536005</v>
+      </c>
+      <c r="I16">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J16">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09645133333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.289354</v>
+      </c>
+      <c r="O16">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="P16">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="Q16">
+        <v>0.1458345767522222</v>
+      </c>
+      <c r="R16">
+        <v>1.31251119077</v>
+      </c>
+      <c r="S16">
+        <v>5.300987260001639E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.300987260001638E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.536005</v>
+      </c>
+      <c r="I17">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J17">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.71027466666667</v>
+      </c>
+      <c r="N17">
+        <v>47.130824</v>
+      </c>
+      <c r="O17">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="P17">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="Q17">
+        <v>23.75396147979111</v>
+      </c>
+      <c r="R17">
+        <v>213.78565331812</v>
+      </c>
+      <c r="S17">
+        <v>0.008634402758468154</v>
+      </c>
+      <c r="T17">
+        <v>0.008634402758468154</v>
       </c>
     </row>
   </sheetData>
